--- a/投资心得/平安银行-dcf.xlsx
+++ b/投资心得/平安银行-dcf.xlsx
@@ -120,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +486,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,7 +626,10 @@
         <f>O3*24</f>
         <v>29.532736292323317</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4">
+        <f>SUM(E4:P4)</f>
+        <v>15.194865013388823</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -722,6 +728,106 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
     </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>E4/Q3</f>
+        <v>2.192715412511034E-2</v>
+      </c>
+      <c r="F5">
+        <f>F4/Q3</f>
+        <v>2.2773606765969377E-2</v>
+      </c>
+      <c r="G5">
+        <f>G4/Q3</f>
+        <v>2.3652734968332159E-2</v>
+      </c>
+      <c r="H5">
+        <f>H4/Q3</f>
+        <v>2.4565800104977335E-2</v>
+      </c>
+      <c r="I5">
+        <f>I4/Q3</f>
+        <v>2.5514112241382707E-2</v>
+      </c>
+      <c r="J5">
+        <f>J4/Q3</f>
+        <v>2.6499032015406668E-2</v>
+      </c>
+      <c r="K5">
+        <f>K4/Q3</f>
+        <v>2.7521972589530819E-2</v>
+      </c>
+      <c r="L5">
+        <f>L4/Q3</f>
+        <v>2.8584401678464901E-2</v>
+      </c>
+      <c r="M5">
+        <f>M4/Q3</f>
+        <v>2.9687843655023288E-2</v>
+      </c>
+      <c r="N5">
+        <f>N4/Q3</f>
+        <v>3.08338817372944E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f>O4/Q3</f>
+        <v>3.2024160260241422E-2</v>
+      </c>
+      <c r="P5" s="8" t="e">
+        <f>P4/R3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>E5*E2</f>
+        <v>2.192715412511034E-2</v>
+      </c>
+      <c r="F6">
+        <f>F5*F2</f>
+        <v>4.5547213531938753E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="F6:O6" si="3">G5*G2</f>
+        <v>7.0958204904996477E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>9.8263200419909338E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.12757056120691354</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.15899419209244001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.19265380812671573</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0.22867521342771921</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.26719059289520958</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.308338817372944</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.35226576286265565</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(E6:O6)</f>
+        <v>1.8723847209665525</v>
+      </c>
+    </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
@@ -743,43 +849,43 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:P8" si="3">+F8+1</f>
+        <f t="shared" ref="G8:P8" si="4">+F8+1</f>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -806,39 +912,39 @@
         <v>0.41687499999999994</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" ref="G9:O9" si="4">+F9*(1+$B$8)</f>
+        <f t="shared" ref="G9:O9" si="5">+F9*(1+$B$8)</f>
         <v>0.47940624999999987</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55131718749999981</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6340147656249997</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72911698046874962</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.838484527539062</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96425720666992121</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1088957876704093</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2752301558209707</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4665146791941162</v>
       </c>
       <c r="P9" s="4">
@@ -879,47 +985,47 @@
         <v>0.32835144927536231</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:P10" si="5">-PV($D$8,F8,0,F9)</f>
+        <f t="shared" ref="F10:P10" si="6">-PV($D$8,F8,0,F9)</f>
         <v>0.34203275966183566</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35628412464774539</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37112929650806809</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38659301719590417</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40270105957906682</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41948027039486124</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.436958614994647</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45516522395275721</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47413044161745543</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49388587668484935</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.736649493148898</v>
       </c>
       <c r="Q10" s="3"/>
